--- a/templates/AutomationOrg/RSTK-9615-SYDATA-WO Issue Reversal.xlsx
+++ b/templates/AutomationOrg/RSTK-9615-SYDATA-WO Issue Reversal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE6911-F0C1-43E6-B9C3-66D0790D97B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A619FD-13EA-4847-B7F6-A8D2149D6CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>1020_PC1</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
-  </si>
-  <si>
     <t>Labor Booking User</t>
   </si>
   <si>
@@ -91,26 +88,22 @@
   </si>
   <si>
     <t>a8s5f000000PtAf</t>
+  </si>
+  <si>
+    <t>Pro-SYDATA1 (Lot track)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF4A4A56"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,9 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +445,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,38 +463,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -510,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -525,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
